--- a/Protokolle/Zeitplan_final.xlsx
+++ b/Protokolle/Zeitplan_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB774E1E-74A1-4965-B79A-C41B08DF29C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E9D276-2CAC-412A-B96E-D727BE58BEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B3796EE1-FAFE-4CBA-918A-988E302ED80D}"/>
   </bookViews>
@@ -412,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +443,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -452,7 +460,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -543,16 +551,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -562,6 +612,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -878,37 +934,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD532D7-E29F-4D5B-84B2-F934B08D842A}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="136.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="14"/>
+      <c r="B1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="6">
@@ -916,93 +973,93 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1011,48 +1068,48 @@
       <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1061,48 +1118,48 @@
       <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1111,48 +1168,48 @@
       <c r="C18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1161,48 +1218,48 @@
       <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1211,48 +1268,48 @@
       <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1261,48 +1318,48 @@
       <c r="C30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1311,48 +1368,48 @@
       <c r="C34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1361,48 +1418,48 @@
       <c r="C38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1411,48 +1468,48 @@
       <c r="C42" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1461,48 +1518,48 @@
       <c r="C46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1511,48 +1568,48 @@
       <c r="C50" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1561,48 +1618,48 @@
       <c r="C54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1611,48 +1668,48 @@
       <c r="C58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1661,48 +1718,48 @@
       <c r="C62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -1711,48 +1768,48 @@
       <c r="C66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -1761,48 +1818,48 @@
       <c r="C70" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>2.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -1811,48 +1868,48 @@
       <c r="C74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -1861,48 +1918,48 @@
       <c r="C78" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="5">
         <v>3.5</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -1911,48 +1968,48 @@
       <c r="C82" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -1961,48 +2018,48 @@
       <c r="C86" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -2011,198 +2068,198 @@
       <c r="C90" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="5">
         <v>1.5</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
+    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="10"/>
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
       <c r="B95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="10"/>
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
       <c r="B96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
+    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="10"/>
+    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
       <c r="B99" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="10"/>
+    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
       <c r="B100" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="11"/>
+      <c r="A101" s="10"/>
       <c r="B101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="9" t="s">
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="10"/>
+    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
       <c r="B103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="10"/>
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
       <c r="B104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="11"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -2211,48 +2268,48 @@
       <c r="C106" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="11"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -2261,48 +2318,48 @@
       <c r="C110" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="6">
         <v>3.5</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11"/>
+      <c r="A113" s="10"/>
       <c r="B113" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -2311,48 +2368,48 @@
       <c r="C114" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11"/>
+      <c r="A117" s="10"/>
       <c r="B117" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="7">
         <v>4.5</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -2361,48 +2418,48 @@
       <c r="C118" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="11"/>
+      <c r="A121" s="10"/>
       <c r="B121" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -2411,79 +2468,79 @@
       <c r="C122" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="5">
         <v>13.5</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
+      <c r="A123" s="9"/>
       <c r="B123" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
+      <c r="A124" s="9"/>
       <c r="B124" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="11"/>
+      <c r="A125" s="10"/>
       <c r="B125" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="13">
+      <c r="B127" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="12">
         <f>SUM(D2,D6,D10,D14,D18,D22,D26,D30,D34,D38,D42,D46,D50,D54,D58,D62,D66,D70,D74,D78,D82,D86,D90,D94,D98,D102,D106,D110,D114,D118,D122)</f>
         <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128" s="13">
+      <c r="B128" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="12">
         <f>SUM(D3,D7,D11,D15,D19,D23,D27,D31,D35,D39,D43,D47,D51,D55,D59,D63,D67,D71,D75,D79,D83,D87,D91,D95,D99,D103,D107,D111,D115,D119,D123)</f>
         <v>81.5</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="13">
+      <c r="B129" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="12">
         <f>SUM(D4,D8,D12,D16,D20,D24,D28,D32,D36,D40,D44,D48,D52,D56,D60,D64,D68,D72,D76,D80,D84,D88,D92,D96,D100,D104,D108,D112,D116,D120,D124)</f>
         <v>80.5</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="13">
+      <c r="B130" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="12">
         <f>SUM(D5,D9,D13,D17,D21,D25,D29,D33,D37,D41,D45,D49,D53,D57,D61,D65,D69,D73,D77,D81,D85,D89,D93,D97,D101,D105,D109,D113,D117,D121,D125)</f>
         <v>82.5</v>
       </c>
